--- a/output/1Y_P32_KFSDIV.xlsx
+++ b/output/1Y_P32_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.4103</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.3976</v>
       </c>
       <c r="C3" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="F3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="H3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.9013</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E4" s="1">
-        <v>1612.39</v>
+        <v>1609.1662</v>
       </c>
       <c r="F4" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4039</v>
+        <v>12.4288</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0406</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.3527</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E5" s="1">
-        <v>2387.4997</v>
+        <v>2382.729</v>
       </c>
       <c r="F5" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="H5" s="1">
-        <v>31879.5673</v>
+        <v>31752.2461</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31879.5673</v>
+        <v>31752.2461</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5654</v>
+        <v>12.5906</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.035</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.8804</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E6" s="1">
-        <v>3136.4119</v>
+        <v>3130.141</v>
       </c>
       <c r="F6" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="H6" s="1">
-        <v>43534.6518</v>
+        <v>43360.5918</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43534.6518</v>
+        <v>43360.5918</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7534</v>
+        <v>12.779</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1074.3749</v>
+        <v>1072.228</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8925.625099999999</v>
+        <v>-8927.772000000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0395</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.6268</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E7" s="1">
-        <v>3856.8522</v>
+        <v>3849.1413</v>
       </c>
       <c r="F7" s="1">
-        <v>694.1698</v>
+        <v>692.7611000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>56413.4064</v>
+        <v>56188.2257</v>
       </c>
       <c r="I7" s="1">
-        <v>1074.3749</v>
+        <v>1072.228</v>
       </c>
       <c r="J7" s="1">
-        <v>57487.7812</v>
+        <v>57260.4537</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9639</v>
+        <v>12.9899</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10153.4821</v>
+        <v>-10153.1754</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0738</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>15.3636</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E8" s="1">
-        <v>4551.022</v>
+        <v>4541.9024</v>
       </c>
       <c r="F8" s="1">
-        <v>660.8791</v>
+        <v>659.5368999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>69920.0815</v>
+        <v>69640.53539999999</v>
       </c>
       <c r="I8" s="1">
-        <v>920.8927</v>
+        <v>919.0526</v>
       </c>
       <c r="J8" s="1">
-        <v>70840.9742</v>
+        <v>70559.588</v>
       </c>
       <c r="K8" s="1">
-        <v>60153.4821</v>
+        <v>60153.1754</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2176</v>
+        <v>13.244</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10153.4821</v>
+        <v>-10153.1754</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0497</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.8711</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E9" s="1">
-        <v>5211.9011</v>
+        <v>5201.4393</v>
       </c>
       <c r="F9" s="1">
-        <v>731.9882</v>
+        <v>730.5021</v>
       </c>
       <c r="H9" s="1">
-        <v>72294.8012</v>
+        <v>72005.6054</v>
       </c>
       <c r="I9" s="1">
-        <v>767.4106</v>
+        <v>765.8772</v>
       </c>
       <c r="J9" s="1">
-        <v>73062.2118</v>
+        <v>72771.4826</v>
       </c>
       <c r="K9" s="1">
-        <v>70306.9642</v>
+        <v>70306.3509</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4897</v>
+        <v>13.5167</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2047.9599</v>
+        <v>2043.8561</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8105.5222</v>
+        <v>-8109.3193</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.09619999999999999</v>
+        <v>-0.09669999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.1252</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E10" s="1">
-        <v>5943.8893</v>
+        <v>5931.9414</v>
       </c>
       <c r="F10" s="1">
-        <v>755.067</v>
+        <v>753.4631000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83958.6256</v>
+        <v>83622.57829999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2661.8884</v>
+        <v>2656.5578</v>
       </c>
       <c r="J10" s="1">
-        <v>86620.514</v>
+        <v>86279.13619999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80460.4464</v>
+        <v>80459.5263</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5367</v>
+        <v>13.5638</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10665.4721</v>
+        <v>-10664.1395</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0428</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.1934</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>6698.9563</v>
+        <v>6685.4045</v>
       </c>
       <c r="F11" s="1">
-        <v>751.4388</v>
+        <v>749.8446</v>
       </c>
       <c r="H11" s="1">
-        <v>95080.96649999999</v>
+        <v>94698.7546</v>
       </c>
       <c r="I11" s="1">
-        <v>1996.4163</v>
+        <v>1992.4184</v>
       </c>
       <c r="J11" s="1">
-        <v>97077.38280000001</v>
+        <v>96691.173</v>
       </c>
       <c r="K11" s="1">
-        <v>91125.9185</v>
+        <v>91123.6658</v>
       </c>
       <c r="L11" s="1">
-        <v>13.603</v>
+        <v>13.6302</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10665.4721</v>
+        <v>-10664.1395</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0047</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>14.1176</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E12" s="1">
-        <v>7450.3952</v>
+        <v>7435.2491</v>
       </c>
       <c r="F12" s="1">
-        <v>755.4734999999999</v>
+        <v>753.8679</v>
       </c>
       <c r="H12" s="1">
-        <v>105181.6987</v>
+        <v>104758.1981</v>
       </c>
       <c r="I12" s="1">
-        <v>1330.9442</v>
+        <v>1328.2789</v>
       </c>
       <c r="J12" s="1">
-        <v>106512.6429</v>
+        <v>106086.477</v>
       </c>
       <c r="K12" s="1">
-        <v>101791.3906</v>
+        <v>101787.8052</v>
       </c>
       <c r="L12" s="1">
-        <v>13.6625</v>
+        <v>13.6899</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3014.5303</v>
+        <v>3008.432</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7650.9418</v>
+        <v>-7655.7074</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>15.3311</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E13" s="1">
-        <v>8205.8686</v>
+        <v>8189.1169</v>
       </c>
       <c r="F13" s="1">
-        <v>892.304</v>
+        <v>890.0371</v>
       </c>
       <c r="H13" s="1">
-        <v>125804.9924</v>
+        <v>125296.7646</v>
       </c>
       <c r="I13" s="1">
-        <v>3680.0024</v>
+        <v>3672.5715</v>
       </c>
       <c r="J13" s="1">
-        <v>129484.9948</v>
+        <v>128969.3361</v>
       </c>
       <c r="K13" s="1">
-        <v>112456.8627</v>
+        <v>112451.9447</v>
       </c>
       <c r="L13" s="1">
-        <v>13.7044</v>
+        <v>13.7319</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13680.0024</v>
+        <v>-13672.5715</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1113</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>15.3637</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E14" s="1">
-        <v>9098.172699999999</v>
+        <v>9079.154</v>
       </c>
       <c r="F14" s="1">
-        <v>-9098.172699999999</v>
+        <v>-9079.154</v>
       </c>
       <c r="H14" s="1">
-        <v>139781.5952</v>
+        <v>139210.6682</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>139781.5952</v>
+        <v>139210.6682</v>
       </c>
       <c r="K14" s="1">
-        <v>126136.8651</v>
+        <v>126124.5161</v>
       </c>
       <c r="L14" s="1">
-        <v>13.864</v>
+        <v>13.8917</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>139781.5952</v>
+        <v>139210.6682</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.4103</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.3976</v>
       </c>
       <c r="C3" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="F3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.9013</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E4" s="1">
-        <v>1612.39</v>
+        <v>1609.1662</v>
       </c>
       <c r="F4" s="1">
-        <v>712.957</v>
+        <v>720.8404</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4039</v>
+        <v>12.4288</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9198.143899999999</v>
+        <v>-9318.4476</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0406</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.3527</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E5" s="1">
-        <v>2325.3471</v>
+        <v>2330.0066</v>
       </c>
       <c r="F5" s="1">
-        <v>670.3018</v>
+        <v>671.6443</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31049.6617</v>
+        <v>31049.668</v>
       </c>
       <c r="I5" s="1">
-        <v>801.8561</v>
+        <v>681.5524</v>
       </c>
       <c r="J5" s="1">
-        <v>31851.5178</v>
+        <v>31731.2204</v>
       </c>
       <c r="K5" s="1">
-        <v>29198.1439</v>
+        <v>29318.4476</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5565</v>
+        <v>12.583</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8950.338299999999</v>
+        <v>-8986.264999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0341</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.8804</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E6" s="1">
-        <v>2995.6488</v>
+        <v>3001.6509</v>
       </c>
       <c r="F6" s="1">
-        <v>606.5528</v>
+        <v>607.7798</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41580.8039</v>
+        <v>41580.6694</v>
       </c>
       <c r="I6" s="1">
-        <v>1851.5178</v>
+        <v>1695.2874</v>
       </c>
       <c r="J6" s="1">
-        <v>43432.3217</v>
+        <v>43275.9568</v>
       </c>
       <c r="K6" s="1">
-        <v>38148.4822</v>
+        <v>38304.7126</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7346</v>
+        <v>12.7612</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1046.4062</v>
+        <v>1048.503</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7372.7899</v>
+        <v>-7404.6202</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0378</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.6268</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E7" s="1">
-        <v>3602.2017</v>
+        <v>3609.4307</v>
       </c>
       <c r="F7" s="1">
-        <v>499.8576</v>
+        <v>500.834</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52688.6833</v>
+        <v>52689.0259</v>
       </c>
       <c r="I7" s="1">
-        <v>4478.7278</v>
+        <v>4290.6672</v>
       </c>
       <c r="J7" s="1">
-        <v>57167.4112</v>
+        <v>56979.6931</v>
       </c>
       <c r="K7" s="1">
-        <v>46567.6783</v>
+        <v>46757.8358</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9276</v>
+        <v>12.9544</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7311.3167</v>
+        <v>-7340.2729</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0699</v>
+        <v>0.06950000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>15.3636</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E8" s="1">
-        <v>4102.0592</v>
+        <v>4110.2647</v>
       </c>
       <c r="F8" s="1">
-        <v>454.1646</v>
+        <v>455.0817</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63022.3972</v>
+        <v>63022.2776</v>
       </c>
       <c r="I8" s="1">
-        <v>7167.4112</v>
+        <v>6950.3943</v>
       </c>
       <c r="J8" s="1">
-        <v>70189.80839999999</v>
+        <v>69972.6719</v>
       </c>
       <c r="K8" s="1">
-        <v>53878.995</v>
+        <v>54098.1087</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1346</v>
+        <v>13.1617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6977.6028</v>
+        <v>-7005.7099</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.045</v>
+        <v>0.0447</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.8711</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E9" s="1">
-        <v>4556.2238</v>
+        <v>4565.3464</v>
       </c>
       <c r="F9" s="1">
-        <v>1211.1631</v>
+        <v>1213.5807</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>63199.836</v>
+        <v>63199.9165</v>
       </c>
       <c r="I9" s="1">
-        <v>10189.8084</v>
+        <v>9944.6844</v>
       </c>
       <c r="J9" s="1">
-        <v>73389.6444</v>
+        <v>73144.6009</v>
       </c>
       <c r="K9" s="1">
-        <v>60856.5978</v>
+        <v>61103.8186</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3568</v>
+        <v>13.3843</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1845.9267</v>
+        <v>1849.6191</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-14954.2374</v>
+        <v>-15017.8181</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0848</v>
+        <v>-0.0854</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.1252</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E10" s="1">
-        <v>5767.3869</v>
+        <v>5778.9271</v>
       </c>
       <c r="F10" s="1">
-        <v>604.2043</v>
+        <v>605.41</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81465.493</v>
+        <v>81465.5359</v>
       </c>
       <c r="I10" s="1">
-        <v>5235.571</v>
+        <v>4926.8663</v>
       </c>
       <c r="J10" s="1">
-        <v>86701.064</v>
+        <v>86392.4022</v>
       </c>
       <c r="K10" s="1">
-        <v>77656.76179999999</v>
+        <v>77971.2558</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4648</v>
+        <v>13.4923</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8534.507</v>
+        <v>-8568.6697</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.1934</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>6371.5912</v>
+        <v>6384.3371</v>
       </c>
       <c r="F11" s="1">
-        <v>673.937</v>
+        <v>675.317</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90434.5425</v>
+        <v>90434.1349</v>
       </c>
       <c r="I11" s="1">
-        <v>6701.064</v>
+        <v>6358.1966</v>
       </c>
       <c r="J11" s="1">
-        <v>97135.6066</v>
+        <v>96792.3315</v>
       </c>
       <c r="K11" s="1">
-        <v>86191.26880000001</v>
+        <v>86539.9255</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5274</v>
+        <v>13.555</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9565.4575</v>
+        <v>-9604.223099999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0045</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>14.1176</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E12" s="1">
-        <v>7045.5282</v>
+        <v>7059.6541</v>
       </c>
       <c r="F12" s="1">
-        <v>746.1644</v>
+        <v>747.6337</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>99465.94899999999</v>
+        <v>99466.2902</v>
       </c>
       <c r="I12" s="1">
-        <v>7135.6066</v>
+        <v>6753.9735</v>
       </c>
       <c r="J12" s="1">
-        <v>106601.5555</v>
+        <v>106220.2636</v>
       </c>
       <c r="K12" s="1">
-        <v>95756.72629999999</v>
+        <v>96144.1486</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5911</v>
+        <v>13.6188</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2867.216</v>
+        <v>2872.9517</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7666.835</v>
+        <v>-7702.9995</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.005</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>15.3311</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E13" s="1">
-        <v>7791.6926</v>
+        <v>7807.2877</v>
       </c>
       <c r="F13" s="1">
-        <v>35.5344</v>
+        <v>35.6445</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>119455.219</v>
+        <v>119454.6255</v>
       </c>
       <c r="I13" s="1">
-        <v>9468.7716</v>
+        <v>9050.974</v>
       </c>
       <c r="J13" s="1">
-        <v>128923.9906</v>
+        <v>128505.5995</v>
       </c>
       <c r="K13" s="1">
-        <v>106290.7773</v>
+        <v>106720.0997</v>
       </c>
       <c r="L13" s="1">
-        <v>13.6416</v>
+        <v>13.6693</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-544.7809999999999</v>
+        <v>-547.5631</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1057</v>
@@ -2086,34 +2086,34 @@
         <v>15.3637</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E14" s="1">
-        <v>7827.227</v>
+        <v>7842.9322</v>
       </c>
       <c r="F14" s="1">
-        <v>-7827.227</v>
+        <v>-7842.9322</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120255.1676</v>
+        <v>120255.6796</v>
       </c>
       <c r="I14" s="1">
-        <v>18923.9906</v>
+        <v>18503.4109</v>
       </c>
       <c r="J14" s="1">
-        <v>139179.1582</v>
+        <v>138759.0905</v>
       </c>
       <c r="K14" s="1">
-        <v>106835.5583</v>
+        <v>107267.6629</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6492</v>
+        <v>13.677</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120255.1676</v>
+        <v>120255.6796</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0018</v>
@@ -2224,16 +2224,16 @@
         <v>12.4103</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.3976</v>
       </c>
       <c r="C3" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="F3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.9013</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E4" s="1">
-        <v>1612.39</v>
+        <v>1609.1662</v>
       </c>
       <c r="F4" s="1">
-        <v>724.6031</v>
+        <v>732.5098</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4039</v>
+        <v>12.4288</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9348.395</v>
+        <v>-9469.3009</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0406</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.3527</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E5" s="1">
-        <v>2336.9932</v>
+        <v>2341.6761</v>
       </c>
       <c r="F5" s="1">
-        <v>681.198</v>
+        <v>682.5624</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31205.1687</v>
+        <v>31205.1751</v>
       </c>
       <c r="I5" s="1">
-        <v>651.605</v>
+        <v>530.6991</v>
       </c>
       <c r="J5" s="1">
-        <v>31856.7737</v>
+        <v>31735.8742</v>
       </c>
       <c r="K5" s="1">
-        <v>29348.395</v>
+        <v>29469.3009</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5582</v>
+        <v>12.5847</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9095.8325</v>
+        <v>-9132.3433</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0342</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.8804</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E6" s="1">
-        <v>3018.1912</v>
+        <v>3024.2384</v>
       </c>
       <c r="F6" s="1">
-        <v>620.2131000000001</v>
+        <v>621.4675</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41893.7007</v>
+        <v>41893.5652</v>
       </c>
       <c r="I6" s="1">
-        <v>1555.7724</v>
+        <v>1398.3558</v>
       </c>
       <c r="J6" s="1">
-        <v>43449.4732</v>
+        <v>43291.921</v>
       </c>
       <c r="K6" s="1">
-        <v>38444.2276</v>
+        <v>38601.6442</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7375</v>
+        <v>12.7641</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1051.6469</v>
+        <v>1053.7542</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7557.1586</v>
+        <v>-7589.7404</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0381</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.6268</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E7" s="1">
-        <v>3638.4042</v>
+        <v>3645.706</v>
       </c>
       <c r="F7" s="1">
-        <v>515.2739</v>
+        <v>516.2809</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>53218.2112</v>
+        <v>53218.5572</v>
       </c>
       <c r="I7" s="1">
-        <v>3998.6138</v>
+        <v>3808.6154</v>
       </c>
       <c r="J7" s="1">
-        <v>57216.825</v>
+        <v>57027.1726</v>
       </c>
       <c r="K7" s="1">
-        <v>47053.0331</v>
+        <v>47245.1388</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9323</v>
+        <v>12.9591</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7536.8076</v>
+        <v>-7566.664</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.07049999999999999</v>
+        <v>0.0701</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>15.3636</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E8" s="1">
-        <v>4153.6781</v>
+        <v>4161.9868</v>
       </c>
       <c r="F8" s="1">
-        <v>471.4614</v>
+        <v>472.4133</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63815.4488</v>
+        <v>63815.3277</v>
       </c>
       <c r="I8" s="1">
-        <v>6461.8062</v>
+        <v>6241.9514</v>
       </c>
       <c r="J8" s="1">
-        <v>70277.255</v>
+        <v>70057.2791</v>
       </c>
       <c r="K8" s="1">
-        <v>54589.8407</v>
+        <v>54811.8028</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1425</v>
+        <v>13.1696</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7243.3451</v>
+        <v>-7272.5196</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0455</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.8711</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E9" s="1">
-        <v>4625.1395</v>
+        <v>4634.4001</v>
       </c>
       <c r="F9" s="1">
-        <v>1244.1922</v>
+        <v>1246.6759</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>64155.7731</v>
+        <v>64155.8549</v>
       </c>
       <c r="I9" s="1">
-        <v>9218.4612</v>
+        <v>8969.4318</v>
       </c>
       <c r="J9" s="1">
-        <v>73374.2343</v>
+        <v>73125.28660000001</v>
       </c>
       <c r="K9" s="1">
-        <v>61833.1858</v>
+        <v>62084.3225</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3689</v>
+        <v>13.3964</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1869.1551</v>
+        <v>1872.8941</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-15389.1596</v>
+        <v>-15454.5294</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.08599999999999999</v>
+        <v>-0.0866</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.1252</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E10" s="1">
-        <v>5869.3318</v>
+        <v>5881.076</v>
       </c>
       <c r="F10" s="1">
-        <v>631.1892</v>
+        <v>632.4487</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82905.48510000001</v>
+        <v>82905.5287</v>
       </c>
       <c r="I10" s="1">
-        <v>3829.3016</v>
+        <v>3514.9024</v>
       </c>
       <c r="J10" s="1">
-        <v>86734.78660000001</v>
+        <v>86420.4311</v>
       </c>
       <c r="K10" s="1">
-        <v>79091.50049999999</v>
+        <v>79411.74589999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4754</v>
+        <v>13.5029</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8915.673199999999</v>
+        <v>-8951.3629</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0403</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.1934</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>6500.5209</v>
+        <v>6513.5247</v>
       </c>
       <c r="F11" s="1">
-        <v>705.6639</v>
+        <v>707.1081</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92264.4938</v>
+        <v>92264.07799999999</v>
       </c>
       <c r="I11" s="1">
-        <v>4913.6283</v>
+        <v>4563.5394</v>
       </c>
       <c r="J11" s="1">
-        <v>97178.12209999999</v>
+        <v>96827.6174</v>
       </c>
       <c r="K11" s="1">
-        <v>88007.1737</v>
+        <v>88363.10890000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5385</v>
+        <v>13.5661</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10015.7703</v>
+        <v>-10056.3498</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0046</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>14.1176</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E12" s="1">
-        <v>7206.1849</v>
+        <v>7220.6328</v>
       </c>
       <c r="F12" s="1">
-        <v>783.2514</v>
+        <v>784.7943</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101734.0353</v>
+        <v>101734.3842</v>
       </c>
       <c r="I12" s="1">
-        <v>4897.8581</v>
+        <v>4507.1896</v>
       </c>
       <c r="J12" s="1">
-        <v>106631.8933</v>
+        <v>106241.5738</v>
       </c>
       <c r="K12" s="1">
-        <v>98022.944</v>
+        <v>98419.4587</v>
       </c>
       <c r="L12" s="1">
-        <v>13.6026</v>
+        <v>13.6303</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2925.2344</v>
+        <v>2931.0861</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8132.3957</v>
+        <v>-8170.5359</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0051</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>15.3311</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E13" s="1">
-        <v>7989.4363</v>
+        <v>8005.4272</v>
       </c>
       <c r="F13" s="1">
-        <v>56.6677</v>
+        <v>56.8211</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>122486.8463</v>
+        <v>122486.2377</v>
       </c>
       <c r="I13" s="1">
-        <v>6765.4623</v>
+        <v>6336.6537</v>
       </c>
       <c r="J13" s="1">
-        <v>129252.3087</v>
+        <v>128822.8914</v>
       </c>
       <c r="K13" s="1">
-        <v>109080.5741</v>
+        <v>109521.0807</v>
       </c>
       <c r="L13" s="1">
-        <v>13.6531</v>
+        <v>13.6809</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-868.7773999999999</v>
+        <v>-872.8749</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1082</v>
@@ -2854,34 +2854,34 @@
         <v>15.3637</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E14" s="1">
-        <v>8046.1039</v>
+        <v>8062.2483</v>
       </c>
       <c r="F14" s="1">
-        <v>-8046.1039</v>
+        <v>-8062.2483</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123617.9267</v>
+        <v>123618.453</v>
       </c>
       <c r="I14" s="1">
-        <v>15896.6849</v>
+        <v>15463.7788</v>
       </c>
       <c r="J14" s="1">
-        <v>139514.6116</v>
+        <v>139082.2319</v>
       </c>
       <c r="K14" s="1">
-        <v>109949.3516</v>
+        <v>110393.9556</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6649</v>
+        <v>13.6927</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123617.9267</v>
+        <v>123618.453</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0019</v>
@@ -2992,16 +2992,16 @@
         <v>12.4103</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.3976</v>
       </c>
       <c r="C3" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="F3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.9013</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E4" s="1">
-        <v>1612.39</v>
+        <v>1609.1662</v>
       </c>
       <c r="F4" s="1">
-        <v>736.288</v>
+        <v>744.2181</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4039</v>
+        <v>12.4288</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9499.146199999999</v>
+        <v>-9620.656199999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0406</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.3527</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E5" s="1">
-        <v>2348.678</v>
+        <v>2353.3843</v>
       </c>
       <c r="F5" s="1">
-        <v>692.2058</v>
+        <v>693.5923</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31361.1933</v>
+        <v>31361.1996</v>
       </c>
       <c r="I5" s="1">
-        <v>500.8538</v>
+        <v>379.3438</v>
       </c>
       <c r="J5" s="1">
-        <v>31862.0471</v>
+        <v>31740.5434</v>
       </c>
       <c r="K5" s="1">
-        <v>29499.1462</v>
+        <v>29620.6562</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5599</v>
+        <v>12.5864</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9242.816699999999</v>
+        <v>-9279.9175</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0344</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.8804</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E6" s="1">
-        <v>3040.8839</v>
+        <v>3046.9766</v>
       </c>
       <c r="F6" s="1">
-        <v>634.0859</v>
+        <v>635.3683</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42208.6844</v>
+        <v>42208.5479</v>
       </c>
       <c r="I6" s="1">
-        <v>1258.0371</v>
+        <v>1099.4262</v>
       </c>
       <c r="J6" s="1">
-        <v>43466.7215</v>
+        <v>43307.9741</v>
       </c>
       <c r="K6" s="1">
-        <v>38741.9629</v>
+        <v>38900.5738</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7404</v>
+        <v>12.7669</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1056.9051</v>
+        <v>1059.023</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7744.4606</v>
+        <v>-7777.8058</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0383</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.6268</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E7" s="1">
-        <v>3674.9697</v>
+        <v>3682.3448</v>
       </c>
       <c r="F7" s="1">
-        <v>531.0186</v>
+        <v>532.0569</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53753.0475</v>
+        <v>53753.397</v>
       </c>
       <c r="I7" s="1">
-        <v>3513.5765</v>
+        <v>3321.6205</v>
       </c>
       <c r="J7" s="1">
-        <v>57266.624</v>
+        <v>57075.0175</v>
       </c>
       <c r="K7" s="1">
-        <v>47543.3286</v>
+        <v>47737.4025</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9371</v>
+        <v>12.9639</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7767.1031</v>
+        <v>-7797.8789</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0711</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>15.3636</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E8" s="1">
-        <v>4205.9884</v>
+        <v>4214.4017</v>
       </c>
       <c r="F8" s="1">
-        <v>489.2232</v>
+        <v>490.2107</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64619.1228</v>
+        <v>64619.0002</v>
       </c>
       <c r="I8" s="1">
-        <v>5746.4734</v>
+        <v>5523.7416</v>
       </c>
       <c r="J8" s="1">
-        <v>70365.5962</v>
+        <v>70142.7418</v>
       </c>
       <c r="K8" s="1">
-        <v>55310.4317</v>
+        <v>55535.2814</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1504</v>
+        <v>13.1775</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7516.2293</v>
+        <v>-7546.4999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0461</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.8711</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E9" s="1">
-        <v>4695.2115</v>
+        <v>4704.6124</v>
       </c>
       <c r="F9" s="1">
-        <v>1278.1219</v>
+        <v>1280.6734</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>65127.7489</v>
+        <v>65127.8319</v>
       </c>
       <c r="I9" s="1">
-        <v>8230.2441</v>
+        <v>7977.2417</v>
       </c>
       <c r="J9" s="1">
-        <v>73357.993</v>
+        <v>73105.0736</v>
       </c>
       <c r="K9" s="1">
-        <v>62826.661</v>
+        <v>63081.7813</v>
       </c>
       <c r="L9" s="1">
-        <v>13.381</v>
+        <v>13.4085</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1892.6948</v>
+        <v>1896.4808</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-15836.262</v>
+        <v>-15903.4703</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0872</v>
+        <v>-0.0878</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.1252</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E10" s="1">
-        <v>5973.3335</v>
+        <v>5985.2858</v>
       </c>
       <c r="F10" s="1">
-        <v>659.1583000000001</v>
+        <v>660.4738</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84374.5297</v>
+        <v>84374.5741</v>
       </c>
       <c r="I10" s="1">
-        <v>2393.9821</v>
+        <v>2073.7713</v>
       </c>
       <c r="J10" s="1">
-        <v>86768.51179999999</v>
+        <v>86448.34540000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80555.6177</v>
+        <v>80881.73239999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4859</v>
+        <v>13.5134</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9310.743</v>
+        <v>-9348.015299999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0409</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.1934</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>6632.4918</v>
+        <v>6645.7596</v>
       </c>
       <c r="F11" s="1">
-        <v>738.6896</v>
+        <v>740.2006</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94137.60860000001</v>
+        <v>94137.18429999999</v>
       </c>
       <c r="I11" s="1">
-        <v>3083.2391</v>
+        <v>2725.756</v>
       </c>
       <c r="J11" s="1">
-        <v>97220.8477</v>
+        <v>96862.9403</v>
       </c>
       <c r="K11" s="1">
-        <v>89866.36079999999</v>
+        <v>90229.74770000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5494</v>
+        <v>13.577</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10484.5168</v>
+        <v>-10526.9845</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0047</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>14.1176</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E12" s="1">
-        <v>7371.1814</v>
+        <v>7385.9601</v>
       </c>
       <c r="F12" s="1">
-        <v>822.0205</v>
+        <v>823.6405</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104063.3899</v>
+        <v>104063.7468</v>
       </c>
       <c r="I12" s="1">
-        <v>2598.7223</v>
+        <v>2198.7715</v>
       </c>
       <c r="J12" s="1">
-        <v>106662.1122</v>
+        <v>106262.5184</v>
       </c>
       <c r="K12" s="1">
-        <v>100350.8776</v>
+        <v>100756.7322</v>
       </c>
       <c r="L12" s="1">
-        <v>13.6139</v>
+        <v>13.6417</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2984.6213</v>
+        <v>2990.5918</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8620.335499999999</v>
+        <v>-8660.5437</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0052</v>
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>15.3311</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E13" s="1">
-        <v>8193.2019</v>
+        <v>8209.6006</v>
       </c>
       <c r="F13" s="1">
-        <v>79.20059999999999</v>
+        <v>79.4004</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>125610.7971</v>
+        <v>125610.173</v>
       </c>
       <c r="I13" s="1">
-        <v>3978.3868</v>
+        <v>3538.2278</v>
       </c>
       <c r="J13" s="1">
-        <v>129589.184</v>
+        <v>129148.4008</v>
       </c>
       <c r="K13" s="1">
-        <v>111955.8344</v>
+        <v>112407.8677</v>
       </c>
       <c r="L13" s="1">
-        <v>13.6645</v>
+        <v>13.6922</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-1214.233</v>
+        <v>-1219.7323</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1108</v>
@@ -3622,34 +3622,34 @@
         <v>15.3637</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E14" s="1">
-        <v>8272.4025</v>
+        <v>8289.000899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8272.4025</v>
+        <v>-8289.000899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127094.7105</v>
+        <v>127095.2516</v>
       </c>
       <c r="I14" s="1">
-        <v>12764.1538</v>
+        <v>12318.4955</v>
       </c>
       <c r="J14" s="1">
-        <v>139858.8643</v>
+        <v>139413.747</v>
       </c>
       <c r="K14" s="1">
-        <v>113170.0674</v>
+        <v>113627.6001</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6804</v>
+        <v>13.7082</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127094.7105</v>
+        <v>127095.2516</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0019</v>
@@ -3760,16 +3760,16 @@
         <v>12.4103</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.3976</v>
       </c>
       <c r="C3" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="F3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9989.766600000001</v>
+        <v>9949.8199</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.9013</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E4" s="1">
-        <v>1612.39</v>
+        <v>1609.1662</v>
       </c>
       <c r="F4" s="1">
-        <v>748.0116</v>
+        <v>755.9652</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20801.9274</v>
+        <v>20718.8199</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4039</v>
+        <v>12.4288</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9650.3974</v>
+        <v>-9772.513499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0406</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.3527</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E5" s="1">
-        <v>2360.4017</v>
+        <v>2365.1315</v>
       </c>
       <c r="F5" s="1">
-        <v>703.3258</v>
+        <v>704.7345</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31517.7353</v>
+        <v>31517.7417</v>
       </c>
       <c r="I5" s="1">
-        <v>349.6026</v>
+        <v>227.4865</v>
       </c>
       <c r="J5" s="1">
-        <v>31867.3379</v>
+        <v>31745.2282</v>
       </c>
       <c r="K5" s="1">
-        <v>29650.3974</v>
+        <v>29772.5135</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5616</v>
+        <v>12.5881</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9391.2984</v>
+        <v>-9428.9953</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0346</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.8804</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E6" s="1">
-        <v>3063.7275</v>
+        <v>3069.866</v>
       </c>
       <c r="F6" s="1">
-        <v>648.1734</v>
+        <v>649.4841</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42525.7627</v>
+        <v>42525.6252</v>
       </c>
       <c r="I6" s="1">
-        <v>958.3042</v>
+        <v>798.4911</v>
       </c>
       <c r="J6" s="1">
-        <v>43484.0669</v>
+        <v>43324.1163</v>
       </c>
       <c r="K6" s="1">
-        <v>39041.6958</v>
+        <v>39201.5089</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7432</v>
+        <v>12.7698</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1062.1807</v>
+        <v>1064.3092</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7934.7258</v>
+        <v>-7968.8463</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0386</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.6268</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E7" s="1">
-        <v>3711.9009</v>
+        <v>3719.3501</v>
       </c>
       <c r="F7" s="1">
-        <v>547.0969</v>
+        <v>548.1671</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>54293.2321</v>
+        <v>54293.5851</v>
       </c>
       <c r="I7" s="1">
-        <v>3023.5784</v>
+        <v>2829.6449</v>
       </c>
       <c r="J7" s="1">
-        <v>57316.8105</v>
+        <v>57123.23</v>
       </c>
       <c r="K7" s="1">
-        <v>48038.6023</v>
+        <v>48234.6643</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9418</v>
+        <v>12.9686</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8002.2772</v>
+        <v>-8033.992</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0717</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>15.3636</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E8" s="1">
-        <v>4258.9978</v>
+        <v>4267.5172</v>
       </c>
       <c r="F8" s="1">
-        <v>507.4594</v>
+        <v>508.4835</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>65433.5389</v>
+        <v>65433.4147</v>
       </c>
       <c r="I8" s="1">
-        <v>5021.3012</v>
+        <v>4795.6529</v>
       </c>
       <c r="J8" s="1">
-        <v>70454.8401</v>
+        <v>70229.06759999999</v>
       </c>
       <c r="K8" s="1">
-        <v>56040.8795</v>
+        <v>56268.6563</v>
       </c>
       <c r="L8" s="1">
-        <v>13.1582</v>
+        <v>13.1853</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7796.403</v>
+        <v>-7827.799</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0466</v>
+        <v>0.0463</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.8711</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E9" s="1">
-        <v>4766.4572</v>
+        <v>4776.0008</v>
       </c>
       <c r="F9" s="1">
-        <v>1241.7831</v>
+        <v>1220.8055</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66116.0046</v>
+        <v>66116.0888</v>
       </c>
       <c r="I9" s="1">
-        <v>7224.8982</v>
+        <v>6967.8539</v>
       </c>
       <c r="J9" s="1">
-        <v>73340.90270000001</v>
+        <v>73083.9427</v>
       </c>
       <c r="K9" s="1">
-        <v>63837.2826</v>
+        <v>64096.4552</v>
       </c>
       <c r="L9" s="1">
-        <v>13.393</v>
+        <v>13.4205</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1916.549</v>
+        <v>1920.3827</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-15308.3491</v>
+        <v>-15047.4712</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.08840000000000001</v>
+        <v>-0.0891</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.1252</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E10" s="1">
-        <v>6008.2403</v>
+        <v>5996.8063</v>
       </c>
       <c r="F10" s="1">
-        <v>759.3323</v>
+        <v>784.3044</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84867.5966</v>
+        <v>84536.97809999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1916.549</v>
+        <v>1920.3827</v>
       </c>
       <c r="J10" s="1">
-        <v>86784.1456</v>
+        <v>86457.36079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81062.1807</v>
+        <v>81064.3092</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4918</v>
+        <v>13.5179</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10725.7203</v>
+        <v>-11100.652</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0413</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.1934</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>6767.5726</v>
+        <v>6781.1107</v>
       </c>
       <c r="F11" s="1">
-        <v>773.0601</v>
+        <v>760.7849</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96054.8654</v>
+        <v>96054.4325</v>
       </c>
       <c r="I11" s="1">
-        <v>1190.8287</v>
+        <v>819.7307</v>
       </c>
       <c r="J11" s="1">
-        <v>97245.69409999999</v>
+        <v>96874.1632</v>
       </c>
       <c r="K11" s="1">
-        <v>91787.9011</v>
+        <v>92164.96120000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5629</v>
+        <v>13.5914</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10972.3513</v>
+        <v>-10819.7307</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0048</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>14.1176</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E12" s="1">
-        <v>7540.6327</v>
+        <v>7541.8956</v>
       </c>
       <c r="F12" s="1">
-        <v>723.8112</v>
+        <v>706.9186</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>106455.6367</v>
+        <v>106260.7833</v>
       </c>
       <c r="I12" s="1">
-        <v>218.4774</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>106674.1141</v>
+        <v>106260.7833</v>
       </c>
       <c r="K12" s="1">
-        <v>102760.2524</v>
+        <v>102984.6919</v>
       </c>
       <c r="L12" s="1">
-        <v>13.6275</v>
+        <v>13.655</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3045.4077</v>
+        <v>3051.4998</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7173.0697</v>
+        <v>-6948.5002</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>15.3311</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E13" s="1">
-        <v>8264.444</v>
+        <v>8248.814200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>241.9329</v>
+        <v>274.6306</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>126703.0168</v>
+        <v>126210.1563</v>
       </c>
       <c r="I13" s="1">
-        <v>3045.4077</v>
+        <v>3051.4998</v>
       </c>
       <c r="J13" s="1">
-        <v>129748.4245</v>
+        <v>129261.6561</v>
       </c>
       <c r="K13" s="1">
-        <v>112978.7298</v>
+        <v>112984.6919</v>
       </c>
       <c r="L13" s="1">
-        <v>13.6705</v>
+        <v>13.6971</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3709.0975</v>
+        <v>-4218.8203</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1121</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>15.3637</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E14" s="1">
-        <v>8506.376899999999</v>
+        <v>8523.444799999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8506.376899999999</v>
+        <v>-8523.444799999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130689.4222</v>
+        <v>130689.9786</v>
       </c>
       <c r="I14" s="1">
-        <v>9336.3102</v>
+        <v>8832.6795</v>
       </c>
       <c r="J14" s="1">
-        <v>140025.7324</v>
+        <v>139522.6581</v>
       </c>
       <c r="K14" s="1">
-        <v>116687.8272</v>
+        <v>117203.5122</v>
       </c>
       <c r="L14" s="1">
-        <v>13.7177</v>
+        <v>13.7507</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130689.4222</v>
+        <v>130689.9786</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.864</v>
+        <v>13.8917</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6492</v>
+        <v>13.677</v>
       </c>
       <c r="E3" s="1">
-        <v>13.6649</v>
+        <v>13.6927</v>
       </c>
       <c r="F3" s="1">
-        <v>13.6804</v>
+        <v>13.7082</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7177</v>
+        <v>13.7507</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.227</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2972</v>
+        <v>0.2849</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2883</v>
+        <v>0.2777</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2918</v>
+        <v>0.2811</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2954</v>
+        <v>0.2846</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2975</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.151</v>
       </c>
       <c r="C5" s="3">
-        <v>0.169</v>
+        <v>0.1692</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1556</v>
+        <v>0.1562</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1581</v>
+        <v>0.1588</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1607</v>
+        <v>0.1613</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1625</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.3691</v>
       </c>
       <c r="C6" s="4">
-        <v>1.6386</v>
+        <v>1.5636</v>
       </c>
       <c r="D6" s="4">
-        <v>1.7222</v>
+        <v>1.6475</v>
       </c>
       <c r="E6" s="4">
-        <v>1.7172</v>
+        <v>1.6427</v>
       </c>
       <c r="F6" s="4">
-        <v>1.7122</v>
+        <v>1.6378</v>
       </c>
       <c r="G6" s="4">
-        <v>1.7053</v>
+        <v>1.6298</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.323</v>
+        <v>0.3133</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3396</v>
+        <v>0.3305</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3391</v>
+        <v>0.33</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3387</v>
+        <v>0.3294</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3362</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6136.8651</v>
+        <v>6124.5161</v>
       </c>
       <c r="D8" s="1">
-        <v>5759.5489</v>
+        <v>5771.0738</v>
       </c>
       <c r="E8" s="1">
-        <v>5846.0365</v>
+        <v>5857.7344</v>
       </c>
       <c r="F8" s="1">
-        <v>5934.2212</v>
+        <v>5946.0955</v>
       </c>
       <c r="G8" s="1">
-        <v>6024.1375</v>
+        <v>6036.1917</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P32_KFSDIV.xlsx
+++ b/output/1Y_P32_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7292.6041</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1032</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3045</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2707</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2377</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
